--- a/Pluton.xlsx
+++ b/Pluton.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maciek/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maciek/PycharmProjects/AppDjango/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FBDEE12-697E-ED49-A6D4-497FDD475B3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D1F8CC-AAF1-6242-9C60-6D1D8128970A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39600" yWindow="1700" windowWidth="28240" windowHeight="17560" xr2:uid="{A5AC1BB9-6F6C-534B-A730-39A313905F29}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20080" xr2:uid="{A5AC1BB9-6F6C-534B-A730-39A313905F29}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="56">
   <si>
     <t>Paweł</t>
   </si>
@@ -198,6 +198,9 @@
   </si>
   <si>
     <t>Krzysztof</t>
+  </si>
+  <si>
+    <t>pchor.</t>
   </si>
 </sst>
 </file>
@@ -574,7 +577,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection sqref="A1:A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -583,8 +586,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>1</v>
+      <c r="A1" t="s">
+        <v>55</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -600,8 +603,8 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2</v>
+      <c r="A2" t="s">
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -617,8 +620,8 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>3</v>
+      <c r="A3" t="s">
+        <v>55</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -634,8 +637,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>4</v>
+      <c r="A4" t="s">
+        <v>55</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
@@ -651,8 +654,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>5</v>
+      <c r="A5" t="s">
+        <v>55</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -668,8 +671,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>6</v>
+      <c r="A6" t="s">
+        <v>55</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -685,8 +688,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>7</v>
+      <c r="A7" t="s">
+        <v>55</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
@@ -702,8 +705,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>8</v>
+      <c r="A8" t="s">
+        <v>55</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
@@ -719,8 +722,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>9</v>
+      <c r="A9" t="s">
+        <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
@@ -736,8 +739,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>10</v>
+      <c r="A10" t="s">
+        <v>55</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
@@ -753,8 +756,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>11</v>
+      <c r="A11" t="s">
+        <v>55</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>0</v>
@@ -770,8 +773,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>12</v>
+      <c r="A12" t="s">
+        <v>55</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>1</v>
@@ -787,8 +790,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>13</v>
+      <c r="A13" t="s">
+        <v>55</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>9</v>
@@ -804,8 +807,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>14</v>
+      <c r="A14" t="s">
+        <v>55</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>10</v>
@@ -821,8 +824,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>15</v>
+      <c r="A15" t="s">
+        <v>55</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>9</v>
@@ -838,8 +841,8 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>16</v>
+      <c r="A16" t="s">
+        <v>55</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>11</v>
@@ -855,8 +858,8 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>17</v>
+      <c r="A17" t="s">
+        <v>55</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>12</v>
@@ -872,8 +875,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>18</v>
+      <c r="A18" t="s">
+        <v>55</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>30</v>
@@ -889,8 +892,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>19</v>
+      <c r="A19" t="s">
+        <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>31</v>
@@ -906,8 +909,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>20</v>
+      <c r="A20" t="s">
+        <v>55</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>9</v>
@@ -923,8 +926,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>21</v>
+      <c r="A21" t="s">
+        <v>55</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>1</v>
@@ -940,8 +943,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>22</v>
+      <c r="A22" t="s">
+        <v>55</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>6</v>
@@ -957,8 +960,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>23</v>
+      <c r="A23" t="s">
+        <v>55</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>32</v>
@@ -974,8 +977,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>24</v>
+      <c r="A24" t="s">
+        <v>55</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>33</v>
@@ -991,8 +994,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>25</v>
+      <c r="A25" t="s">
+        <v>55</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>32</v>
@@ -1008,8 +1011,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>26</v>
+      <c r="A26" t="s">
+        <v>55</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>32</v>
@@ -1025,8 +1028,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>27</v>
+      <c r="A27" t="s">
+        <v>55</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>31</v>
@@ -1042,8 +1045,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>28</v>
+      <c r="A28" t="s">
+        <v>55</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>1</v>
@@ -1059,8 +1062,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>29</v>
+      <c r="A29" t="s">
+        <v>55</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>33</v>
@@ -1076,8 +1079,8 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>30</v>
+      <c r="A30" t="s">
+        <v>55</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>33</v>
@@ -1093,8 +1096,8 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>31</v>
+      <c r="A31" t="s">
+        <v>55</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>54</v>
@@ -1110,8 +1113,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>32</v>
+      <c r="A32" t="s">
+        <v>55</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>32</v>
@@ -1127,8 +1130,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>33</v>
+      <c r="A33" t="s">
+        <v>55</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>34</v>
@@ -1144,8 +1147,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>34</v>
+      <c r="A34" t="s">
+        <v>55</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>35</v>
@@ -1161,8 +1164,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>35</v>
+      <c r="A35" t="s">
+        <v>55</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>1</v>

--- a/Pluton.xlsx
+++ b/Pluton.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maciek/PycharmProjects/AppPJ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82925C01-4212-0E48-9A77-DB33F65CF4EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EB16D6-053F-BF45-96EA-9D62E5C3CC21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="1900" windowWidth="38400" windowHeight="20040" xr2:uid="{A5AC1BB9-6F6C-534B-A730-39A313905F29}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="70">
   <si>
     <t>Paweł</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Ksenia</t>
   </si>
   <si>
-    <t>Maciej</t>
-  </si>
-  <si>
     <t>Hubert</t>
   </si>
   <si>
@@ -63,9 +60,6 @@
   </si>
   <si>
     <t>DOMŻAŁ</t>
-  </si>
-  <si>
-    <t>DYBOWSKI</t>
   </si>
   <si>
     <t>DZIWUSZ</t>
@@ -676,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556574B0-F788-1F4B-8AD9-B59CB2B5AA4D}">
-  <dimension ref="A1:AL39"/>
+  <dimension ref="A1:AL38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -694,13 +688,13 @@
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="D1" s="8">
         <v>8</v>
@@ -712,13 +706,13 @@
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="9">
         <v>3</v>
@@ -730,16 +724,16 @@
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
@@ -748,13 +742,13 @@
     </row>
     <row r="4" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D4" s="9">
         <v>7</v>
@@ -766,13 +760,13 @@
     </row>
     <row r="5" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="9">
         <v>9</v>
@@ -784,78 +778,103 @@
     </row>
     <row r="6" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="5">
         <v>4</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="9">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
       </c>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>63</v>
+        <v>9</v>
+      </c>
+      <c r="D7" s="9">
+        <v>6</v>
       </c>
       <c r="E7" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G7" s="4"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
     </row>
     <row r="8" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="9">
         <v>5</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="9">
-        <v>6</v>
       </c>
       <c r="E8" s="5">
         <v>6</v>
       </c>
       <c r="G8" s="4"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
       <c r="M8" s="15"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+      <c r="AE8"/>
+      <c r="AF8"/>
+      <c r="AG8"/>
+      <c r="AH8"/>
+      <c r="AI8"/>
+      <c r="AJ8"/>
+      <c r="AK8"/>
+      <c r="AL8"/>
     </row>
     <row r="9" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="9">
         <v>5</v>
       </c>
       <c r="E9" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G9" s="4"/>
       <c r="I9" s="13"/>
@@ -863,39 +882,39 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="15"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
       <c r="P9" s="15"/>
       <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
       <c r="V9" s="15"/>
-      <c r="AB9"/>
-      <c r="AC9"/>
-      <c r="AD9"/>
-      <c r="AE9"/>
-      <c r="AF9"/>
-      <c r="AG9"/>
-      <c r="AH9"/>
-      <c r="AI9"/>
-      <c r="AJ9"/>
-      <c r="AK9"/>
-      <c r="AL9"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="15"/>
+      <c r="AD9" s="15"/>
+      <c r="AE9" s="15"/>
+      <c r="AF9" s="15"/>
+      <c r="AG9" s="15"/>
+      <c r="AH9" s="15"/>
+      <c r="AI9" s="15"/>
+      <c r="AJ9" s="15"/>
+      <c r="AK9" s="15"/>
+      <c r="AL9" s="15"/>
     </row>
     <row r="10" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D10" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" s="5">
         <v>0</v>
@@ -929,16 +948,16 @@
     </row>
     <row r="11" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="9">
-        <v>4</v>
+        <v>32</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="E11" s="5">
         <v>0</v>
@@ -972,16 +991,16 @@
     </row>
     <row r="12" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>64</v>
+        <v>13</v>
+      </c>
+      <c r="D12" s="9">
+        <v>4</v>
       </c>
       <c r="E12" s="5">
         <v>0</v>
@@ -1015,25 +1034,25 @@
     </row>
     <row r="13" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="9">
+        <v>34</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="5">
         <v>4</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0</v>
       </c>
       <c r="G13" s="4"/>
       <c r="I13" s="13"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
       <c r="M13" s="15"/>
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
@@ -1058,34 +1077,34 @@
     </row>
     <row r="14" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>65</v>
+      <c r="D14" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="E14" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G14" s="4"/>
       <c r="I14" s="13"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
       <c r="M14" s="15"/>
       <c r="N14" s="15"/>
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
       <c r="Q14" s="15"/>
       <c r="R14" s="13"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
       <c r="V14" s="15"/>
       <c r="AB14" s="15"/>
       <c r="AC14" s="15"/>
@@ -1101,25 +1120,25 @@
     </row>
     <row r="15" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>66</v>
+        <v>18</v>
+      </c>
+      <c r="D15" s="9">
+        <v>5</v>
       </c>
       <c r="E15" s="5">
         <v>0</v>
       </c>
       <c r="G15" s="4"/>
       <c r="I15" s="13"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
       <c r="M15" s="15"/>
       <c r="N15" s="15"/>
       <c r="O15" s="15"/>
@@ -1144,25 +1163,25 @@
     </row>
     <row r="16" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="9">
-        <v>5</v>
+        <v>21</v>
+      </c>
+      <c r="D16" s="8">
+        <v>10</v>
       </c>
       <c r="E16" s="5">
         <v>0</v>
       </c>
       <c r="G16" s="4"/>
       <c r="I16" s="13"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
       <c r="M16" s="15"/>
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
@@ -1187,16 +1206,16 @@
     </row>
     <row r="17" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>38</v>
+        <v>22</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="8">
-        <v>10</v>
+        <v>19</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="E17" s="5">
         <v>0</v>
@@ -1230,25 +1249,25 @@
     </row>
     <row r="18" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>61</v>
+        <v>37</v>
+      </c>
+      <c r="D18" s="9">
+        <v>2</v>
       </c>
       <c r="E18" s="5">
         <v>0</v>
       </c>
       <c r="G18" s="4"/>
       <c r="I18" s="13"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
       <c r="M18" s="15"/>
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
@@ -1273,25 +1292,25 @@
     </row>
     <row r="19" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="9">
-        <v>2</v>
+      <c r="D19" s="11" t="s">
+        <v>65</v>
       </c>
       <c r="E19" s="5">
         <v>0</v>
       </c>
       <c r="G19" s="4"/>
       <c r="I19" s="13"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
       <c r="M19" s="15"/>
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
@@ -1316,25 +1335,25 @@
     </row>
     <row r="20" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>67</v>
+      <c r="D20" s="9">
+        <v>9</v>
       </c>
       <c r="E20" s="5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G20" s="4"/>
       <c r="I20" s="13"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
       <c r="M20" s="15"/>
       <c r="N20" s="15"/>
       <c r="O20" s="15"/>
@@ -1359,7 +1378,7 @@
     </row>
     <row r="21" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>41</v>
@@ -1367,17 +1386,17 @@
       <c r="C21" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="9">
-        <v>9</v>
+      <c r="D21" s="11" t="s">
+        <v>66</v>
       </c>
       <c r="E21" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G21" s="4"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
       <c r="M21" s="15"/>
       <c r="N21" s="15"/>
       <c r="O21" s="15"/>
@@ -1402,25 +1421,25 @@
     </row>
     <row r="22" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>68</v>
+        <v>20</v>
+      </c>
+      <c r="D22" s="9">
+        <v>6</v>
       </c>
       <c r="E22" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G22" s="4"/>
       <c r="I22" s="13"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
       <c r="M22" s="15"/>
       <c r="N22" s="15"/>
       <c r="O22" s="15"/>
@@ -1445,25 +1464,25 @@
     </row>
     <row r="23" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D23" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E23" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G23" s="4"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
       <c r="M23" s="15"/>
       <c r="N23" s="15"/>
       <c r="O23" s="15"/>
@@ -1488,19 +1507,19 @@
     </row>
     <row r="24" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D24" s="9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E24" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G24" s="4"/>
       <c r="I24" s="13"/>
@@ -1531,19 +1550,19 @@
     </row>
     <row r="25" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D25" s="9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E25" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G25" s="4"/>
       <c r="I25" s="13"/>
@@ -1574,7 +1593,7 @@
     </row>
     <row r="26" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>47</v>
@@ -1582,11 +1601,11 @@
       <c r="C26" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="9">
-        <v>8</v>
+      <c r="D26" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="E26" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G26" s="4"/>
       <c r="I26" s="13"/>
@@ -1617,19 +1636,19 @@
     </row>
     <row r="27" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>62</v>
+      <c r="D27" s="9">
+        <v>4</v>
       </c>
       <c r="E27" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G27" s="4"/>
       <c r="I27" s="13"/>
@@ -1660,19 +1679,19 @@
     </row>
     <row r="28" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D28" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="5">
         <v>4</v>
-      </c>
-      <c r="E28" s="5">
-        <v>0</v>
       </c>
       <c r="G28" s="4"/>
       <c r="I28" s="13"/>
@@ -1703,7 +1722,7 @@
     </row>
     <row r="29" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>52</v>
@@ -1711,8 +1730,8 @@
       <c r="C29" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="11" t="s">
-        <v>69</v>
+      <c r="D29" s="9">
+        <v>9</v>
       </c>
       <c r="E29" s="5">
         <v>4</v>
@@ -1746,19 +1765,19 @@
     </row>
     <row r="30" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="D30" s="9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E30" s="5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G30" s="4"/>
       <c r="I30" s="13"/>
@@ -1789,19 +1808,19 @@
     </row>
     <row r="31" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="5">
         <v>17</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="9">
-        <v>11</v>
-      </c>
-      <c r="E31" s="5">
-        <v>0</v>
       </c>
       <c r="G31" s="4"/>
       <c r="I31" s="13"/>
@@ -1832,19 +1851,19 @@
     </row>
     <row r="32" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E32" s="5">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G32" s="4"/>
       <c r="I32" s="13"/>
@@ -1875,16 +1894,16 @@
     </row>
     <row r="33" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="12" t="s">
-        <v>70</v>
+      <c r="D33" s="9">
+        <v>4</v>
       </c>
       <c r="E33" s="5">
         <v>0</v>
@@ -1916,23 +1935,11 @@
       <c r="AK33" s="15"/>
       <c r="AL33" s="15"/>
     </row>
-    <row r="34" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34" s="9">
-        <v>4</v>
-      </c>
-      <c r="E34" s="5">
-        <v>0</v>
-      </c>
-      <c r="G34" s="4"/>
+    <row r="34" spans="1:38" ht="17" x14ac:dyDescent="0.2">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="2"/>
       <c r="I34" s="13"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
@@ -1960,10 +1967,6 @@
       <c r="AL34" s="15"/>
     </row>
     <row r="35" spans="1:38" ht="17" x14ac:dyDescent="0.2">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="2"/>
       <c r="I35" s="13"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
@@ -2022,7 +2025,6 @@
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
-      <c r="M37" s="15"/>
       <c r="N37" s="15"/>
       <c r="O37" s="15"/>
       <c r="P37" s="15"/>
@@ -2045,10 +2047,6 @@
       <c r="AL37" s="15"/>
     </row>
     <row r="38" spans="1:38" ht="17" x14ac:dyDescent="0.2">
-      <c r="I38" s="13"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
       <c r="N38" s="15"/>
       <c r="O38" s="15"/>
       <c r="P38" s="15"/>
@@ -2058,32 +2056,10 @@
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
       <c r="V38" s="15"/>
-      <c r="AB38" s="15"/>
-      <c r="AC38" s="15"/>
-      <c r="AD38" s="15"/>
-      <c r="AE38" s="15"/>
-      <c r="AF38" s="15"/>
-      <c r="AG38" s="15"/>
-      <c r="AH38" s="15"/>
-      <c r="AI38" s="15"/>
-      <c r="AJ38" s="15"/>
-      <c r="AK38" s="15"/>
-      <c r="AL38" s="15"/>
-    </row>
-    <row r="39" spans="1:38" ht="17" x14ac:dyDescent="0.2">
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="15"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J9:L38">
-    <sortCondition ref="J14:J38"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J8:L37">
+    <sortCondition ref="J13:J37"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Pluton.xlsx
+++ b/Pluton.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maciek/PycharmProjects/AppPJ/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EB16D6-053F-BF45-96EA-9D62E5C3CC21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946B6BBA-78BE-CC46-A804-0B0B2821E45B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="1900" windowWidth="38400" windowHeight="20040" xr2:uid="{A5AC1BB9-6F6C-534B-A730-39A313905F29}"/>
   </bookViews>
@@ -670,23 +670,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556574B0-F788-1F4B-8AD9-B59CB2B5AA4D}">
-  <dimension ref="A1:AL38"/>
+  <dimension ref="A1:AM38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="G1" sqref="G1:G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="7"/>
-    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.83203125" customWidth="1"/>
+    <col min="4" max="5" width="10.83203125" style="7"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
@@ -699,12 +699,18 @@
       <c r="D1" s="8">
         <v>8</v>
       </c>
-      <c r="E1" s="5">
-        <v>0</v>
-      </c>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E1" s="8">
+        <v>0</v>
+      </c>
+      <c r="F1" s="5">
+        <v>0</v>
+      </c>
+      <c r="G1" s="3">
+        <v>0</v>
+      </c>
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:39" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
@@ -717,12 +723,18 @@
       <c r="D2" s="9">
         <v>3</v>
       </c>
-      <c r="E2" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E2" s="8">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:39" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -735,12 +747,18 @@
       <c r="D3" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E3" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:39" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -753,12 +771,18 @@
       <c r="D4" s="9">
         <v>7</v>
       </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:39" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -771,12 +795,18 @@
       <c r="D5" s="9">
         <v>9</v>
       </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:39" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
@@ -789,12 +819,18 @@
       <c r="D6" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
         <v>4</v>
       </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:39" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
@@ -807,17 +843,23 @@
       <c r="D7" s="9">
         <v>6</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
         <v>6</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="I7" s="15"/>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4"/>
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
-    </row>
-    <row r="8" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N7" s="15"/>
+    </row>
+    <row r="8" spans="1:39" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
@@ -830,25 +872,30 @@
       <c r="D8" s="9">
         <v>5</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
         <v>6</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="2"/>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="J8" s="13"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="14"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="15"/>
       <c r="O8" s="14"/>
-      <c r="P8" s="15"/>
+      <c r="P8" s="14"/>
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
       <c r="T8" s="15"/>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
-      <c r="AB8"/>
+      <c r="W8" s="15"/>
       <c r="AC8"/>
       <c r="AD8"/>
       <c r="AE8"/>
@@ -859,8 +906,9 @@
       <c r="AJ8"/>
       <c r="AK8"/>
       <c r="AL8"/>
-    </row>
-    <row r="9" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM8"/>
+    </row>
+    <row r="9" spans="1:39" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -873,25 +921,30 @@
       <c r="D9" s="9">
         <v>5</v>
       </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="2"/>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="J9" s="13"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="15"/>
+      <c r="M9" s="2"/>
       <c r="N9" s="15"/>
       <c r="O9" s="15"/>
       <c r="P9" s="15"/>
       <c r="Q9" s="15"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="14"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="13"/>
       <c r="T9" s="14"/>
       <c r="U9" s="14"/>
-      <c r="V9" s="15"/>
-      <c r="AB9" s="15"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="15"/>
       <c r="AC9" s="15"/>
       <c r="AD9" s="15"/>
       <c r="AE9" s="15"/>
@@ -902,8 +955,9 @@
       <c r="AJ9" s="15"/>
       <c r="AK9" s="15"/>
       <c r="AL9" s="15"/>
-    </row>
-    <row r="10" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM9" s="15"/>
+    </row>
+    <row r="10" spans="1:39" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
@@ -916,25 +970,30 @@
       <c r="D10" s="9">
         <v>4</v>
       </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="2"/>
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="J10" s="13"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
-      <c r="M10" s="15"/>
+      <c r="M10" s="2"/>
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
       <c r="P10" s="15"/>
       <c r="Q10" s="15"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="14"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="13"/>
       <c r="T10" s="14"/>
       <c r="U10" s="14"/>
-      <c r="V10" s="15"/>
-      <c r="AB10" s="15"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="15"/>
       <c r="AC10" s="15"/>
       <c r="AD10" s="15"/>
       <c r="AE10" s="15"/>
@@ -945,8 +1004,9 @@
       <c r="AJ10" s="15"/>
       <c r="AK10" s="15"/>
       <c r="AL10" s="15"/>
-    </row>
-    <row r="11" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM10" s="15"/>
+    </row>
+    <row r="11" spans="1:39" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
@@ -959,25 +1019,30 @@
       <c r="D11" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="2"/>
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="J11" s="13"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="15"/>
+      <c r="M11" s="2"/>
       <c r="N11" s="15"/>
       <c r="O11" s="15"/>
       <c r="P11" s="15"/>
       <c r="Q11" s="15"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="14"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="13"/>
       <c r="T11" s="14"/>
       <c r="U11" s="14"/>
-      <c r="V11" s="15"/>
-      <c r="AB11" s="15"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="15"/>
       <c r="AC11" s="15"/>
       <c r="AD11" s="15"/>
       <c r="AE11" s="15"/>
@@ -988,8 +1053,9 @@
       <c r="AJ11" s="15"/>
       <c r="AK11" s="15"/>
       <c r="AL11" s="15"/>
-    </row>
-    <row r="12" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM11" s="15"/>
+    </row>
+    <row r="12" spans="1:39" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>22</v>
       </c>
@@ -1002,25 +1068,30 @@
       <c r="D12" s="9">
         <v>4</v>
       </c>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="2"/>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="J12" s="13"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
-      <c r="M12" s="15"/>
+      <c r="M12" s="2"/>
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
       <c r="Q12" s="15"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="14"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="13"/>
       <c r="T12" s="14"/>
       <c r="U12" s="14"/>
-      <c r="V12" s="15"/>
-      <c r="AB12" s="15"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="15"/>
       <c r="AC12" s="15"/>
       <c r="AD12" s="15"/>
       <c r="AE12" s="15"/>
@@ -1031,8 +1102,9 @@
       <c r="AJ12" s="15"/>
       <c r="AK12" s="15"/>
       <c r="AL12" s="15"/>
-    </row>
-    <row r="13" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM12" s="15"/>
+    </row>
+    <row r="13" spans="1:39" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
@@ -1045,25 +1117,30 @@
       <c r="D13" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
         <v>4</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="14"/>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="J13" s="13"/>
       <c r="K13" s="14"/>
       <c r="L13" s="14"/>
-      <c r="M13" s="15"/>
+      <c r="M13" s="14"/>
       <c r="N13" s="15"/>
       <c r="O13" s="15"/>
       <c r="P13" s="15"/>
       <c r="Q13" s="15"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="14"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="13"/>
       <c r="T13" s="14"/>
       <c r="U13" s="14"/>
-      <c r="V13" s="15"/>
-      <c r="AB13" s="15"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="15"/>
       <c r="AC13" s="15"/>
       <c r="AD13" s="15"/>
       <c r="AE13" s="15"/>
@@ -1074,8 +1151,9 @@
       <c r="AJ13" s="15"/>
       <c r="AK13" s="15"/>
       <c r="AL13" s="15"/>
-    </row>
-    <row r="14" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM13" s="15"/>
+    </row>
+    <row r="14" spans="1:39" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>22</v>
       </c>
@@ -1088,25 +1166,30 @@
       <c r="D14" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="2"/>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="J14" s="13"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="15"/>
+      <c r="M14" s="2"/>
       <c r="N14" s="15"/>
       <c r="O14" s="15"/>
       <c r="P14" s="15"/>
       <c r="Q14" s="15"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="2"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="13"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
-      <c r="V14" s="15"/>
-      <c r="AB14" s="15"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="15"/>
       <c r="AC14" s="15"/>
       <c r="AD14" s="15"/>
       <c r="AE14" s="15"/>
@@ -1117,8 +1200,9 @@
       <c r="AJ14" s="15"/>
       <c r="AK14" s="15"/>
       <c r="AL14" s="15"/>
-    </row>
-    <row r="15" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM14" s="15"/>
+    </row>
+    <row r="15" spans="1:39" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>22</v>
       </c>
@@ -1131,25 +1215,30 @@
       <c r="D15" s="9">
         <v>5</v>
       </c>
-      <c r="E15" s="5">
-        <v>0</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="14"/>
+      <c r="E15" s="8">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="J15" s="13"/>
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
-      <c r="M15" s="15"/>
+      <c r="M15" s="14"/>
       <c r="N15" s="15"/>
       <c r="O15" s="15"/>
       <c r="P15" s="15"/>
       <c r="Q15" s="15"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="2"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="13"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
-      <c r="V15" s="15"/>
-      <c r="AB15" s="15"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="15"/>
       <c r="AC15" s="15"/>
       <c r="AD15" s="15"/>
       <c r="AE15" s="15"/>
@@ -1160,8 +1249,9 @@
       <c r="AJ15" s="15"/>
       <c r="AK15" s="15"/>
       <c r="AL15" s="15"/>
-    </row>
-    <row r="16" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM15" s="15"/>
+    </row>
+    <row r="16" spans="1:39" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
@@ -1174,25 +1264,30 @@
       <c r="D16" s="8">
         <v>10</v>
       </c>
-      <c r="E16" s="5">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="2"/>
+      <c r="E16" s="8">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="J16" s="13"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-      <c r="M16" s="15"/>
+      <c r="M16" s="2"/>
       <c r="N16" s="15"/>
       <c r="O16" s="15"/>
       <c r="P16" s="15"/>
       <c r="Q16" s="15"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="2"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="13"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
-      <c r="V16" s="15"/>
-      <c r="AB16" s="15"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="15"/>
       <c r="AC16" s="15"/>
       <c r="AD16" s="15"/>
       <c r="AE16" s="15"/>
@@ -1203,8 +1298,9 @@
       <c r="AJ16" s="15"/>
       <c r="AK16" s="15"/>
       <c r="AL16" s="15"/>
-    </row>
-    <row r="17" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM16" s="15"/>
+    </row>
+    <row r="17" spans="1:39" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -1217,25 +1313,30 @@
       <c r="D17" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="5">
-        <v>0</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="2"/>
+      <c r="E17" s="8">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="J17" s="13"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-      <c r="M17" s="15"/>
+      <c r="M17" s="2"/>
       <c r="N17" s="15"/>
       <c r="O17" s="15"/>
       <c r="P17" s="15"/>
       <c r="Q17" s="15"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="2"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="13"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
-      <c r="V17" s="15"/>
-      <c r="AB17" s="15"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="15"/>
       <c r="AC17" s="15"/>
       <c r="AD17" s="15"/>
       <c r="AE17" s="15"/>
@@ -1246,8 +1347,9 @@
       <c r="AJ17" s="15"/>
       <c r="AK17" s="15"/>
       <c r="AL17" s="15"/>
-    </row>
-    <row r="18" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM17" s="15"/>
+    </row>
+    <row r="18" spans="1:39" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
@@ -1260,25 +1362,30 @@
       <c r="D18" s="9">
         <v>2</v>
       </c>
-      <c r="E18" s="5">
-        <v>0</v>
-      </c>
-      <c r="G18" s="4"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="14"/>
+      <c r="E18" s="8">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="J18" s="13"/>
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
-      <c r="M18" s="15"/>
+      <c r="M18" s="14"/>
       <c r="N18" s="15"/>
       <c r="O18" s="15"/>
       <c r="P18" s="15"/>
       <c r="Q18" s="15"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="2"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="13"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
-      <c r="V18" s="15"/>
-      <c r="AB18" s="15"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="15"/>
       <c r="AC18" s="15"/>
       <c r="AD18" s="15"/>
       <c r="AE18" s="15"/>
@@ -1289,8 +1396,9 @@
       <c r="AJ18" s="15"/>
       <c r="AK18" s="15"/>
       <c r="AL18" s="15"/>
-    </row>
-    <row r="19" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM18" s="15"/>
+    </row>
+    <row r="19" spans="1:39" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
@@ -1303,25 +1411,30 @@
       <c r="D19" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E19" s="5">
-        <v>0</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="2"/>
+      <c r="E19" s="8">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="J19" s="13"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="15"/>
+      <c r="M19" s="2"/>
       <c r="N19" s="15"/>
       <c r="O19" s="15"/>
       <c r="P19" s="15"/>
       <c r="Q19" s="15"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="2"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="13"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
-      <c r="V19" s="15"/>
-      <c r="AB19" s="15"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="15"/>
       <c r="AC19" s="15"/>
       <c r="AD19" s="15"/>
       <c r="AE19" s="15"/>
@@ -1332,8 +1445,9 @@
       <c r="AJ19" s="15"/>
       <c r="AK19" s="15"/>
       <c r="AL19" s="15"/>
-    </row>
-    <row r="20" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM19" s="15"/>
+    </row>
+    <row r="20" spans="1:39" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
@@ -1346,25 +1460,30 @@
       <c r="D20" s="9">
         <v>9</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="8">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
         <v>7</v>
       </c>
-      <c r="G20" s="4"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="14"/>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="J20" s="13"/>
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
-      <c r="M20" s="15"/>
+      <c r="M20" s="14"/>
       <c r="N20" s="15"/>
       <c r="O20" s="15"/>
       <c r="P20" s="15"/>
       <c r="Q20" s="15"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="2"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="13"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
-      <c r="V20" s="15"/>
-      <c r="AB20" s="15"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="15"/>
       <c r="AC20" s="15"/>
       <c r="AD20" s="15"/>
       <c r="AE20" s="15"/>
@@ -1375,8 +1494,9 @@
       <c r="AJ20" s="15"/>
       <c r="AK20" s="15"/>
       <c r="AL20" s="15"/>
-    </row>
-    <row r="21" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM20" s="15"/>
+    </row>
+    <row r="21" spans="1:39" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
@@ -1389,25 +1509,30 @@
       <c r="D21" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="8">
+        <v>0</v>
+      </c>
+      <c r="F21" s="5">
         <v>4</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="2"/>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="J21" s="13"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="15"/>
+      <c r="M21" s="2"/>
       <c r="N21" s="15"/>
       <c r="O21" s="15"/>
       <c r="P21" s="15"/>
       <c r="Q21" s="15"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="2"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="13"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
-      <c r="V21" s="15"/>
-      <c r="AB21" s="15"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="15"/>
       <c r="AC21" s="15"/>
       <c r="AD21" s="15"/>
       <c r="AE21" s="15"/>
@@ -1418,8 +1543,9 @@
       <c r="AJ21" s="15"/>
       <c r="AK21" s="15"/>
       <c r="AL21" s="15"/>
-    </row>
-    <row r="22" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM21" s="15"/>
+    </row>
+    <row r="22" spans="1:39" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
@@ -1432,25 +1558,30 @@
       <c r="D22" s="9">
         <v>6</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="8">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
         <v>6</v>
       </c>
-      <c r="G22" s="4"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="14"/>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="J22" s="13"/>
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
-      <c r="M22" s="15"/>
+      <c r="M22" s="14"/>
       <c r="N22" s="15"/>
       <c r="O22" s="15"/>
       <c r="P22" s="15"/>
       <c r="Q22" s="15"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="2"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="13"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
-      <c r="V22" s="15"/>
-      <c r="AB22" s="15"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="15"/>
       <c r="AC22" s="15"/>
       <c r="AD22" s="15"/>
       <c r="AE22" s="15"/>
@@ -1461,8 +1592,9 @@
       <c r="AJ22" s="15"/>
       <c r="AK22" s="15"/>
       <c r="AL22" s="15"/>
-    </row>
-    <row r="23" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM22" s="15"/>
+    </row>
+    <row r="23" spans="1:39" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -1475,25 +1607,30 @@
       <c r="D23" s="9">
         <v>7</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="8">
+        <v>0</v>
+      </c>
+      <c r="F23" s="5">
         <v>7</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="2"/>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="J23" s="13"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
-      <c r="M23" s="15"/>
+      <c r="M23" s="2"/>
       <c r="N23" s="15"/>
       <c r="O23" s="15"/>
       <c r="P23" s="15"/>
       <c r="Q23" s="15"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="2"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="13"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
-      <c r="V23" s="15"/>
-      <c r="AB23" s="15"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="15"/>
       <c r="AC23" s="15"/>
       <c r="AD23" s="15"/>
       <c r="AE23" s="15"/>
@@ -1504,8 +1641,9 @@
       <c r="AJ23" s="15"/>
       <c r="AK23" s="15"/>
       <c r="AL23" s="15"/>
-    </row>
-    <row r="24" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM23" s="15"/>
+    </row>
+    <row r="24" spans="1:39" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
@@ -1518,25 +1656,30 @@
       <c r="D24" s="9">
         <v>9</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="8">
+        <v>0</v>
+      </c>
+      <c r="F24" s="5">
         <v>4</v>
       </c>
-      <c r="G24" s="4"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="2"/>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="J24" s="13"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
-      <c r="M24" s="15"/>
+      <c r="M24" s="2"/>
       <c r="N24" s="15"/>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
       <c r="Q24" s="15"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="2"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="13"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
-      <c r="V24" s="15"/>
-      <c r="AB24" s="15"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="15"/>
       <c r="AC24" s="15"/>
       <c r="AD24" s="15"/>
       <c r="AE24" s="15"/>
@@ -1547,8 +1690,9 @@
       <c r="AJ24" s="15"/>
       <c r="AK24" s="15"/>
       <c r="AL24" s="15"/>
-    </row>
-    <row r="25" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM24" s="15"/>
+    </row>
+    <row r="25" spans="1:39" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>22</v>
       </c>
@@ -1561,25 +1705,30 @@
       <c r="D25" s="9">
         <v>8</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="8">
+        <v>0</v>
+      </c>
+      <c r="F25" s="5">
         <v>6</v>
       </c>
-      <c r="G25" s="4"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="2"/>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="J25" s="13"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
-      <c r="M25" s="15"/>
+      <c r="M25" s="2"/>
       <c r="N25" s="15"/>
       <c r="O25" s="15"/>
       <c r="P25" s="15"/>
       <c r="Q25" s="15"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="2"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="13"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
-      <c r="V25" s="15"/>
-      <c r="AB25" s="15"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="15"/>
       <c r="AC25" s="15"/>
       <c r="AD25" s="15"/>
       <c r="AE25" s="15"/>
@@ -1590,8 +1739,9 @@
       <c r="AJ25" s="15"/>
       <c r="AK25" s="15"/>
       <c r="AL25" s="15"/>
-    </row>
-    <row r="26" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM25" s="15"/>
+    </row>
+    <row r="26" spans="1:39" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>22</v>
       </c>
@@ -1604,25 +1754,30 @@
       <c r="D26" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="8">
+        <v>0</v>
+      </c>
+      <c r="F26" s="5">
         <v>4</v>
       </c>
-      <c r="G26" s="4"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="2"/>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="J26" s="13"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
-      <c r="M26" s="15"/>
+      <c r="M26" s="2"/>
       <c r="N26" s="15"/>
       <c r="O26" s="15"/>
       <c r="P26" s="15"/>
       <c r="Q26" s="15"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="2"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="13"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
-      <c r="V26" s="15"/>
-      <c r="AB26" s="15"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="15"/>
       <c r="AC26" s="15"/>
       <c r="AD26" s="15"/>
       <c r="AE26" s="15"/>
@@ -1633,8 +1788,9 @@
       <c r="AJ26" s="15"/>
       <c r="AK26" s="15"/>
       <c r="AL26" s="15"/>
-    </row>
-    <row r="27" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM26" s="15"/>
+    </row>
+    <row r="27" spans="1:39" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>22</v>
       </c>
@@ -1647,25 +1803,30 @@
       <c r="D27" s="9">
         <v>4</v>
       </c>
-      <c r="E27" s="5">
-        <v>0</v>
-      </c>
-      <c r="G27" s="4"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="2"/>
+      <c r="E27" s="8">
+        <v>0</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="J27" s="13"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
-      <c r="M27" s="15"/>
+      <c r="M27" s="2"/>
       <c r="N27" s="15"/>
       <c r="O27" s="15"/>
       <c r="P27" s="15"/>
       <c r="Q27" s="15"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="2"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="13"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
-      <c r="V27" s="15"/>
-      <c r="AB27" s="15"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="15"/>
       <c r="AC27" s="15"/>
       <c r="AD27" s="15"/>
       <c r="AE27" s="15"/>
@@ -1676,8 +1837,9 @@
       <c r="AJ27" s="15"/>
       <c r="AK27" s="15"/>
       <c r="AL27" s="15"/>
-    </row>
-    <row r="28" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM27" s="15"/>
+    </row>
+    <row r="28" spans="1:39" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
@@ -1690,25 +1852,30 @@
       <c r="D28" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="8">
+        <v>0</v>
+      </c>
+      <c r="F28" s="5">
         <v>4</v>
       </c>
-      <c r="G28" s="4"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="2"/>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="J28" s="13"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
-      <c r="M28" s="15"/>
+      <c r="M28" s="2"/>
       <c r="N28" s="15"/>
       <c r="O28" s="15"/>
       <c r="P28" s="15"/>
       <c r="Q28" s="15"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="2"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="13"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
-      <c r="V28" s="15"/>
-      <c r="AB28" s="15"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="15"/>
       <c r="AC28" s="15"/>
       <c r="AD28" s="15"/>
       <c r="AE28" s="15"/>
@@ -1719,8 +1886,9 @@
       <c r="AJ28" s="15"/>
       <c r="AK28" s="15"/>
       <c r="AL28" s="15"/>
-    </row>
-    <row r="29" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM28" s="15"/>
+    </row>
+    <row r="29" spans="1:39" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>22</v>
       </c>
@@ -1733,25 +1901,30 @@
       <c r="D29" s="9">
         <v>9</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="8">
+        <v>0</v>
+      </c>
+      <c r="F29" s="5">
         <v>4</v>
       </c>
-      <c r="G29" s="4"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="2"/>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="J29" s="13"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
-      <c r="M29" s="15"/>
+      <c r="M29" s="2"/>
       <c r="N29" s="15"/>
       <c r="O29" s="15"/>
       <c r="P29" s="15"/>
       <c r="Q29" s="15"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="2"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="13"/>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
-      <c r="V29" s="15"/>
-      <c r="AB29" s="15"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="15"/>
       <c r="AC29" s="15"/>
       <c r="AD29" s="15"/>
       <c r="AE29" s="15"/>
@@ -1762,8 +1935,9 @@
       <c r="AJ29" s="15"/>
       <c r="AK29" s="15"/>
       <c r="AL29" s="15"/>
-    </row>
-    <row r="30" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM29" s="15"/>
+    </row>
+    <row r="30" spans="1:39" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>22</v>
       </c>
@@ -1776,25 +1950,30 @@
       <c r="D30" s="9">
         <v>11</v>
       </c>
-      <c r="E30" s="5">
-        <v>0</v>
-      </c>
-      <c r="G30" s="4"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="2"/>
+      <c r="E30" s="8">
+        <v>0</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="J30" s="13"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
-      <c r="M30" s="15"/>
+      <c r="M30" s="2"/>
       <c r="N30" s="15"/>
       <c r="O30" s="15"/>
       <c r="P30" s="15"/>
       <c r="Q30" s="15"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="2"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="13"/>
       <c r="T30" s="2"/>
       <c r="U30" s="2"/>
-      <c r="V30" s="15"/>
-      <c r="AB30" s="15"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="15"/>
       <c r="AC30" s="15"/>
       <c r="AD30" s="15"/>
       <c r="AE30" s="15"/>
@@ -1805,8 +1984,9 @@
       <c r="AJ30" s="15"/>
       <c r="AK30" s="15"/>
       <c r="AL30" s="15"/>
-    </row>
-    <row r="31" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM30" s="15"/>
+    </row>
+    <row r="31" spans="1:39" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>22</v>
       </c>
@@ -1819,25 +1999,30 @@
       <c r="D31" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="8">
+        <v>0</v>
+      </c>
+      <c r="F31" s="5">
         <v>17</v>
       </c>
-      <c r="G31" s="4"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="2"/>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="J31" s="13"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="15"/>
+      <c r="M31" s="2"/>
       <c r="N31" s="15"/>
       <c r="O31" s="15"/>
       <c r="P31" s="15"/>
       <c r="Q31" s="15"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="2"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="13"/>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
-      <c r="V31" s="15"/>
-      <c r="AB31" s="15"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="15"/>
       <c r="AC31" s="15"/>
       <c r="AD31" s="15"/>
       <c r="AE31" s="15"/>
@@ -1848,8 +2033,9 @@
       <c r="AJ31" s="15"/>
       <c r="AK31" s="15"/>
       <c r="AL31" s="15"/>
-    </row>
-    <row r="32" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM31" s="15"/>
+    </row>
+    <row r="32" spans="1:39" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>22</v>
       </c>
@@ -1862,25 +2048,30 @@
       <c r="D32" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E32" s="5">
-        <v>0</v>
-      </c>
-      <c r="G32" s="4"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="2"/>
+      <c r="E32" s="8">
+        <v>0</v>
+      </c>
+      <c r="F32" s="5">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="J32" s="13"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
-      <c r="M32" s="15"/>
+      <c r="M32" s="2"/>
       <c r="N32" s="15"/>
       <c r="O32" s="15"/>
       <c r="P32" s="15"/>
       <c r="Q32" s="15"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="2"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="13"/>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
-      <c r="V32" s="15"/>
-      <c r="AB32" s="15"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="15"/>
       <c r="AC32" s="15"/>
       <c r="AD32" s="15"/>
       <c r="AE32" s="15"/>
@@ -1891,8 +2082,9 @@
       <c r="AJ32" s="15"/>
       <c r="AK32" s="15"/>
       <c r="AL32" s="15"/>
-    </row>
-    <row r="33" spans="1:38" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AM32" s="15"/>
+    </row>
+    <row r="33" spans="1:39" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>22</v>
       </c>
@@ -1905,25 +2097,30 @@
       <c r="D33" s="9">
         <v>4</v>
       </c>
-      <c r="E33" s="5">
-        <v>0</v>
-      </c>
-      <c r="G33" s="4"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="2"/>
+      <c r="E33" s="8">
+        <v>0</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="4"/>
+      <c r="J33" s="13"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
-      <c r="M33" s="15"/>
+      <c r="M33" s="2"/>
       <c r="N33" s="15"/>
       <c r="O33" s="15"/>
       <c r="P33" s="15"/>
       <c r="Q33" s="15"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="2"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="13"/>
       <c r="T33" s="2"/>
       <c r="U33" s="2"/>
-      <c r="V33" s="15"/>
-      <c r="AB33" s="15"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="15"/>
       <c r="AC33" s="15"/>
       <c r="AD33" s="15"/>
       <c r="AE33" s="15"/>
@@ -1934,27 +2131,28 @@
       <c r="AJ33" s="15"/>
       <c r="AK33" s="15"/>
       <c r="AL33" s="15"/>
-    </row>
-    <row r="34" spans="1:38" ht="17" x14ac:dyDescent="0.2">
+      <c r="AM33" s="15"/>
+    </row>
+    <row r="34" spans="1:39" ht="17" x14ac:dyDescent="0.2">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="10"/>
-      <c r="E34" s="2"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="2"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="2"/>
+      <c r="J34" s="13"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
-      <c r="M34" s="15"/>
+      <c r="M34" s="2"/>
       <c r="N34" s="15"/>
       <c r="O34" s="15"/>
       <c r="P34" s="15"/>
       <c r="Q34" s="15"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="2"/>
+      <c r="R34" s="15"/>
+      <c r="S34" s="13"/>
       <c r="T34" s="2"/>
       <c r="U34" s="2"/>
-      <c r="V34" s="15"/>
-      <c r="AB34" s="15"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="15"/>
       <c r="AC34" s="15"/>
       <c r="AD34" s="15"/>
       <c r="AE34" s="15"/>
@@ -1965,23 +2163,23 @@
       <c r="AJ34" s="15"/>
       <c r="AK34" s="15"/>
       <c r="AL34" s="15"/>
-    </row>
-    <row r="35" spans="1:38" ht="17" x14ac:dyDescent="0.2">
-      <c r="I35" s="13"/>
-      <c r="J35" s="2"/>
+      <c r="AM34" s="15"/>
+    </row>
+    <row r="35" spans="1:39" ht="17" x14ac:dyDescent="0.2">
+      <c r="J35" s="13"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
-      <c r="M35" s="15"/>
+      <c r="M35" s="2"/>
       <c r="N35" s="15"/>
       <c r="O35" s="15"/>
       <c r="P35" s="15"/>
       <c r="Q35" s="15"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="2"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="13"/>
       <c r="T35" s="2"/>
       <c r="U35" s="2"/>
-      <c r="V35" s="15"/>
-      <c r="AB35" s="15"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="15"/>
       <c r="AC35" s="15"/>
       <c r="AD35" s="15"/>
       <c r="AE35" s="15"/>
@@ -1992,23 +2190,23 @@
       <c r="AJ35" s="15"/>
       <c r="AK35" s="15"/>
       <c r="AL35" s="15"/>
-    </row>
-    <row r="36" spans="1:38" ht="17" x14ac:dyDescent="0.2">
-      <c r="I36" s="13"/>
-      <c r="J36" s="2"/>
+      <c r="AM35" s="15"/>
+    </row>
+    <row r="36" spans="1:39" ht="17" x14ac:dyDescent="0.2">
+      <c r="J36" s="13"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
-      <c r="M36" s="15"/>
+      <c r="M36" s="2"/>
       <c r="N36" s="15"/>
       <c r="O36" s="15"/>
       <c r="P36" s="15"/>
       <c r="Q36" s="15"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="2"/>
+      <c r="R36" s="15"/>
+      <c r="S36" s="13"/>
       <c r="T36" s="2"/>
       <c r="U36" s="2"/>
-      <c r="V36" s="15"/>
-      <c r="AB36" s="15"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="15"/>
       <c r="AC36" s="15"/>
       <c r="AD36" s="15"/>
       <c r="AE36" s="15"/>
@@ -2019,22 +2217,22 @@
       <c r="AJ36" s="15"/>
       <c r="AK36" s="15"/>
       <c r="AL36" s="15"/>
-    </row>
-    <row r="37" spans="1:38" ht="17" x14ac:dyDescent="0.2">
-      <c r="I37" s="13"/>
-      <c r="J37" s="2"/>
+      <c r="AM36" s="15"/>
+    </row>
+    <row r="37" spans="1:39" ht="17" x14ac:dyDescent="0.2">
+      <c r="J37" s="13"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
-      <c r="N37" s="15"/>
+      <c r="M37" s="2"/>
       <c r="O37" s="15"/>
       <c r="P37" s="15"/>
       <c r="Q37" s="15"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="2"/>
+      <c r="R37" s="15"/>
+      <c r="S37" s="13"/>
       <c r="T37" s="2"/>
       <c r="U37" s="2"/>
-      <c r="V37" s="15"/>
-      <c r="AB37" s="15"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="15"/>
       <c r="AC37" s="15"/>
       <c r="AD37" s="15"/>
       <c r="AE37" s="15"/>
@@ -2045,21 +2243,22 @@
       <c r="AJ37" s="15"/>
       <c r="AK37" s="15"/>
       <c r="AL37" s="15"/>
-    </row>
-    <row r="38" spans="1:38" ht="17" x14ac:dyDescent="0.2">
-      <c r="N38" s="15"/>
+      <c r="AM37" s="15"/>
+    </row>
+    <row r="38" spans="1:39" ht="17" x14ac:dyDescent="0.2">
       <c r="O38" s="15"/>
       <c r="P38" s="15"/>
       <c r="Q38" s="15"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="2"/>
+      <c r="R38" s="15"/>
+      <c r="S38" s="13"/>
       <c r="T38" s="2"/>
       <c r="U38" s="2"/>
-      <c r="V38" s="15"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="15"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J8:L37">
-    <sortCondition ref="J13:J37"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="K8:M37">
+    <sortCondition ref="K13:K37"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
